--- a/Src/test-res/basic_io_bw/绘图.xlsx
+++ b/Src/test-res/basic_io_bw/绘图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject-Temp\Project.HoitOS\HoitOS\Src\test-painter\raw\basic_io_bw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject-Temp\Project.HoitOS\HoitOS\Src\test-res\basic_io_bw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896D5B1A-CAF2-4E70-BEC2-D7A44BDEC8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A297D66-AABF-457A-953F-17E86B937B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,11 +110,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -275,10 +275,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2655.0558000000001</c:v>
+                  <c:v>3521.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2511.2240000000002</c:v>
+                  <c:v>3090.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>508.72199999999998</c:v>
@@ -346,10 +346,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2568.5223000000005</c:v>
+                  <c:v>3767.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2345.1089999999999</c:v>
+                  <c:v>3270.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>473.05840000000001</c:v>
@@ -874,10 +874,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2655.0558000000001</c:v>
+                  <c:v>3521.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2511.2240000000002</c:v>
+                  <c:v>3090.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,10 +933,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2568.5223000000005</c:v>
+                  <c:v>3767.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2345.1089999999999</c:v>
+                  <c:v>3270.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5915,38 +5915,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U130" sqref="U130"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5997,10 +5997,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2562.56</v>
+        <v>3157.33</v>
       </c>
       <c r="B3">
-        <v>2014.2</v>
+        <v>3157.33</v>
       </c>
       <c r="C3">
         <v>362.39</v>
@@ -6009,7 +6009,7 @@
         <v>9472</v>
       </c>
       <c r="E3">
-        <v>4677.53</v>
+        <v>9472</v>
       </c>
       <c r="F3">
         <v>8200.8700000000008</v>
@@ -6044,16 +6044,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2533.37</v>
+        <v>3157.33</v>
       </c>
       <c r="B4">
-        <v>2585.86</v>
+        <v>2677.22</v>
       </c>
       <c r="C4">
         <v>363.31</v>
       </c>
       <c r="D4">
-        <v>788.68</v>
+        <v>9472</v>
       </c>
       <c r="E4">
         <v>9472</v>
@@ -6091,19 +6091,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3552.75</v>
+        <v>3157.33</v>
       </c>
       <c r="B5">
-        <v>3791.23</v>
+        <v>3529.72</v>
       </c>
       <c r="C5">
         <v>375.48</v>
       </c>
       <c r="D5">
-        <v>4274.37</v>
+        <v>9472</v>
       </c>
       <c r="E5">
-        <v>9472</v>
+        <v>890.81</v>
       </c>
       <c r="F5">
         <v>680.26</v>
@@ -6138,19 +6138,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1940.43</v>
+        <v>3157.33</v>
       </c>
       <c r="B6">
-        <v>2324.7600000000002</v>
+        <v>3508.93</v>
       </c>
       <c r="C6">
         <v>401.09</v>
       </c>
       <c r="D6">
-        <v>4245.63</v>
+        <v>908.32</v>
       </c>
       <c r="E6">
-        <v>4307.41</v>
+        <v>10690.74</v>
       </c>
       <c r="F6">
         <v>105.24</v>
@@ -6185,19 +6185,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2539.8200000000002</v>
+        <v>3157.33</v>
       </c>
       <c r="B7">
-        <v>2093.12</v>
+        <v>4947.51</v>
       </c>
       <c r="C7">
         <v>344.5</v>
       </c>
       <c r="D7">
-        <v>1219.2</v>
+        <v>10152.200000000001</v>
       </c>
       <c r="E7">
-        <v>4100.43</v>
+        <v>10318.08</v>
       </c>
       <c r="F7">
         <v>96.99</v>
@@ -6232,19 +6232,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2717.39</v>
+        <v>2441.36</v>
       </c>
       <c r="B8">
-        <v>2482.9</v>
+        <v>2488.0500000000002</v>
       </c>
       <c r="C8">
         <v>388.47</v>
       </c>
       <c r="D8">
-        <v>9472</v>
+        <v>9815.5400000000009</v>
       </c>
       <c r="E8">
-        <v>4044.41</v>
+        <v>9214.01</v>
       </c>
       <c r="F8">
         <v>105.08</v>
@@ -6279,19 +6279,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3444.36</v>
+        <v>3837.46</v>
       </c>
       <c r="B9">
-        <v>3954.08</v>
+        <v>3760.22</v>
       </c>
       <c r="C9">
         <v>366.72</v>
       </c>
       <c r="D9">
-        <v>836.08</v>
+        <v>9072.7999999999993</v>
       </c>
       <c r="E9">
-        <v>1053.8499999999999</v>
+        <v>8935.85</v>
       </c>
       <c r="F9">
         <v>107.76</v>
@@ -6326,19 +6326,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2006.78</v>
+        <v>3416.78</v>
       </c>
       <c r="B10">
-        <v>1948.01</v>
+        <v>3511.01</v>
       </c>
       <c r="C10">
         <v>409.8</v>
       </c>
       <c r="D10">
-        <v>3718.88</v>
+        <v>8434.5499999999993</v>
       </c>
       <c r="E10">
-        <v>9472</v>
+        <v>8200.8700000000008</v>
       </c>
       <c r="F10">
         <v>130.76</v>
@@ -6373,19 +6373,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2560.42</v>
+        <v>2991.69</v>
       </c>
       <c r="B11">
-        <v>2763.77</v>
+        <v>5210.12</v>
       </c>
       <c r="C11">
         <v>342.25</v>
       </c>
       <c r="D11">
-        <v>3650.1</v>
+        <v>7577.6</v>
       </c>
       <c r="E11">
-        <v>3627.73</v>
+        <v>7481.83</v>
       </c>
       <c r="F11">
         <v>111.58</v>
@@ -6420,19 +6420,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2635.94</v>
+        <v>3490.57</v>
       </c>
       <c r="B12">
-        <v>3647.99</v>
+        <v>4808.37</v>
       </c>
       <c r="C12">
         <v>368.16</v>
       </c>
       <c r="D12">
-        <v>1231.73</v>
+        <v>7675.85</v>
       </c>
       <c r="E12">
-        <v>3607.01</v>
+        <v>965.55</v>
       </c>
       <c r="F12">
         <v>355.69</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3336.86</v>
+        <v>5663.72</v>
       </c>
       <c r="B13">
-        <v>2117.5500000000002</v>
+        <v>2521.56</v>
       </c>
       <c r="C13">
         <v>321.93</v>
@@ -6479,7 +6479,7 @@
         <v>9472</v>
       </c>
       <c r="E13">
-        <v>3363.64</v>
+        <v>9472</v>
       </c>
       <c r="F13">
         <v>9815.5400000000009</v>
@@ -6514,19 +6514,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1957.59</v>
+        <v>3157.33</v>
       </c>
       <c r="B14">
-        <v>3830.01</v>
+        <v>3746.09</v>
       </c>
       <c r="C14">
         <v>349.97</v>
       </c>
       <c r="D14">
-        <v>790.78</v>
+        <v>9472</v>
       </c>
       <c r="E14">
-        <v>954.74</v>
+        <v>9472</v>
       </c>
       <c r="F14">
         <v>9214.01</v>
@@ -6561,19 +6561,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2633.67</v>
+        <v>3157.33</v>
       </c>
       <c r="B15">
-        <v>1981.55</v>
+        <v>5869.01</v>
       </c>
       <c r="C15">
         <v>339.76</v>
       </c>
       <c r="D15">
-        <v>3288.89</v>
+        <v>936.8</v>
       </c>
       <c r="E15">
-        <v>832.56</v>
+        <v>6235.68</v>
       </c>
       <c r="F15">
         <v>9350.44</v>
@@ -6608,19 +6608,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3844.78</v>
+        <v>2446.34</v>
       </c>
       <c r="B16">
-        <v>2633.67</v>
+        <v>4874.9399999999996</v>
       </c>
       <c r="C16">
         <v>365.89</v>
       </c>
       <c r="D16">
-        <v>3218.48</v>
+        <v>5927.41</v>
       </c>
       <c r="E16">
-        <v>3201.08</v>
+        <v>6107.03</v>
       </c>
       <c r="F16">
         <v>9815.5400000000009</v>
@@ -6655,19 +6655,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1934.8</v>
+        <v>3529.59</v>
       </c>
       <c r="B17">
-        <v>3762.61</v>
+        <v>3157.33</v>
       </c>
       <c r="C17">
         <v>378.11</v>
       </c>
       <c r="D17">
-        <v>1044.67</v>
+        <v>5927.41</v>
       </c>
       <c r="E17">
-        <v>3054.5</v>
+        <v>5758.05</v>
       </c>
       <c r="F17">
         <v>9815.5400000000009</v>
@@ -6702,19 +6702,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3003.65</v>
+        <v>3711.31</v>
       </c>
       <c r="B18">
-        <v>3203.03</v>
+        <v>3157.33</v>
       </c>
       <c r="C18">
         <v>359.11</v>
       </c>
       <c r="D18">
-        <v>853.95</v>
+        <v>5814.61</v>
       </c>
       <c r="E18">
-        <v>1006.05</v>
+        <v>5443.68</v>
       </c>
       <c r="F18">
         <v>9472</v>
@@ -6749,19 +6749,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3331.34</v>
+        <v>3407.07</v>
       </c>
       <c r="B19">
-        <v>2107.09</v>
+        <v>2457.39</v>
       </c>
       <c r="C19">
         <v>370.69</v>
       </c>
       <c r="D19">
-        <v>3038.82</v>
+        <v>4867.42</v>
       </c>
       <c r="E19">
-        <v>901.49</v>
+        <v>1118.83</v>
       </c>
       <c r="F19">
         <v>9472</v>
@@ -6796,19 +6796,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2079.29</v>
+        <v>5151.75</v>
       </c>
       <c r="B20">
-        <v>2653.52</v>
+        <v>3420.73</v>
       </c>
       <c r="C20">
         <v>364.31</v>
       </c>
       <c r="D20">
-        <v>2948.94</v>
+        <v>1037.46</v>
       </c>
       <c r="E20">
-        <v>2891.33</v>
+        <v>9472</v>
       </c>
       <c r="F20">
         <v>9472</v>
@@ -6843,19 +6843,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2674.8</v>
+        <v>4823.79</v>
       </c>
       <c r="B21">
-        <v>2050.13</v>
+        <v>3686.18</v>
       </c>
       <c r="C21">
         <v>351.76</v>
       </c>
       <c r="D21">
-        <v>1096.3</v>
+        <v>9472</v>
       </c>
       <c r="E21">
-        <v>2721.06</v>
+        <v>9472</v>
       </c>
       <c r="F21">
         <v>9472</v>
@@ -6890,19 +6890,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2419.66</v>
+        <v>3157.33</v>
       </c>
       <c r="B22">
-        <v>2697.73</v>
+        <v>3604.12</v>
       </c>
       <c r="C22">
         <v>399.46</v>
       </c>
       <c r="D22">
-        <v>881.61</v>
+        <v>872.59</v>
       </c>
       <c r="E22">
-        <v>1061.4100000000001</v>
+        <v>810.06</v>
       </c>
       <c r="F22">
         <v>8935.85</v>
@@ -6937,19 +6937,19 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2397.4299999999998</v>
+        <v>3157.33</v>
       </c>
       <c r="B23">
-        <v>2461.4699999999998</v>
+        <v>3264.07</v>
       </c>
       <c r="C23">
         <v>390.7</v>
       </c>
       <c r="D23">
-        <v>2850.44</v>
+        <v>4827.7299999999996</v>
       </c>
       <c r="E23">
-        <v>799.19</v>
+        <v>4638.59</v>
       </c>
       <c r="F23">
         <v>9350.44</v>
@@ -6984,19 +6984,19 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3351.85</v>
+        <v>2389.75</v>
       </c>
       <c r="B24">
-        <v>3559.03</v>
+        <v>5060.37</v>
       </c>
       <c r="C24">
         <v>378.88</v>
       </c>
       <c r="D24">
-        <v>2546.92</v>
+        <v>4401.49</v>
       </c>
       <c r="E24">
-        <v>2473.75</v>
+        <v>4307.41</v>
       </c>
       <c r="F24">
         <v>9655.4500000000007</v>
@@ -7031,19 +7031,19 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1932.94</v>
+        <v>2532.2800000000002</v>
       </c>
       <c r="B25">
-        <v>1996.75</v>
+        <v>2523.71</v>
       </c>
       <c r="C25">
         <v>361.45</v>
       </c>
       <c r="D25">
-        <v>1044.67</v>
+        <v>4401.49</v>
       </c>
       <c r="E25">
-        <v>1388.86</v>
+        <v>4245.63</v>
       </c>
       <c r="F25">
         <v>8548.74</v>
@@ -7078,19 +7078,19 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2775.27</v>
+        <v>3498.69</v>
       </c>
       <c r="B26">
-        <v>2546.31</v>
+        <v>3902.44</v>
       </c>
       <c r="C26">
         <v>376.19</v>
       </c>
       <c r="D26">
-        <v>884.24</v>
+        <v>1068.95</v>
       </c>
       <c r="E26">
-        <v>9472</v>
+        <v>959.29</v>
       </c>
       <c r="F26">
         <v>9500.5</v>
@@ -7125,19 +7125,19 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3659.12</v>
+        <v>3327.6</v>
       </c>
       <c r="B27">
-        <v>2657.02</v>
+        <v>3436.49</v>
       </c>
       <c r="C27">
         <v>386.71</v>
       </c>
       <c r="D27">
-        <v>2648.77</v>
+        <v>9472</v>
       </c>
       <c r="E27">
-        <v>705.08</v>
+        <v>9472</v>
       </c>
       <c r="F27">
         <v>9072.7999999999993</v>
@@ -7172,19 +7172,19 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1901.63</v>
+        <v>3652.35</v>
       </c>
       <c r="B28">
-        <v>3376.47</v>
+        <v>3301.84</v>
       </c>
       <c r="C28">
         <v>364.31</v>
       </c>
       <c r="D28">
-        <v>2636.97</v>
+        <v>890.81</v>
       </c>
       <c r="E28">
-        <v>2433.09</v>
+        <v>799.19</v>
       </c>
       <c r="F28">
         <v>1057.6199999999999</v>
@@ -7219,19 +7219,19 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1962.05</v>
+        <v>5099.05</v>
       </c>
       <c r="B29">
-        <v>2000.08</v>
+        <v>2719.81</v>
       </c>
       <c r="C29">
         <v>365.11</v>
       </c>
       <c r="D29">
-        <v>1039.28</v>
+        <v>3991.57</v>
       </c>
       <c r="E29">
-        <v>1118.83</v>
+        <v>3813.2</v>
       </c>
       <c r="F29">
         <v>9472</v>
@@ -7266,19 +7266,19 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2610.66</v>
+        <v>3157.33</v>
       </c>
       <c r="B30">
-        <v>1950.58</v>
+        <v>3822.75</v>
       </c>
       <c r="C30">
         <v>358.65</v>
       </c>
       <c r="D30">
-        <v>775.38</v>
+        <v>3813.2</v>
       </c>
       <c r="E30">
-        <v>837.19</v>
+        <v>3788.8</v>
       </c>
       <c r="F30">
         <v>9472</v>
@@ -7313,19 +7313,19 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2754.85</v>
+        <v>3157.33</v>
       </c>
       <c r="B31">
-        <v>2226.19</v>
+        <v>4898.8900000000003</v>
       </c>
       <c r="C31">
         <v>364.09</v>
       </c>
       <c r="D31">
-        <v>2294.02</v>
+        <v>3862.97</v>
       </c>
       <c r="E31">
-        <v>2241.89</v>
+        <v>1164.6400000000001</v>
       </c>
       <c r="F31">
         <v>9472</v>
@@ -7360,19 +7360,19 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3220.24</v>
+        <v>3157.33</v>
       </c>
       <c r="B32">
-        <v>1942.97</v>
+        <v>1725.63</v>
       </c>
       <c r="C32">
         <v>352.53</v>
       </c>
       <c r="D32">
-        <v>1315.56</v>
+        <v>973.38</v>
       </c>
       <c r="E32">
-        <v>1415.21</v>
+        <v>9472</v>
       </c>
       <c r="F32">
         <v>878.99</v>
@@ -7407,19 +7407,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2064.92</v>
+        <v>2412.8200000000002</v>
       </c>
       <c r="B33">
-        <v>2487.0700000000002</v>
+        <v>3584.62</v>
       </c>
       <c r="C33">
         <v>402.55</v>
       </c>
       <c r="D33">
-        <v>918.1</v>
+        <v>897.48</v>
       </c>
       <c r="E33">
-        <v>841.96</v>
+        <v>840.76</v>
       </c>
       <c r="F33">
         <v>9350.44</v>
@@ -7454,19 +7454,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2618.67</v>
+        <v>3632.46</v>
       </c>
       <c r="B34">
-        <v>2956.21</v>
+        <v>5373.88</v>
       </c>
       <c r="C34">
         <v>364.31</v>
       </c>
       <c r="D34">
-        <v>2217.23</v>
+        <v>3401.08</v>
       </c>
       <c r="E34">
-        <v>2138.15</v>
+        <v>3307.26</v>
       </c>
       <c r="F34">
         <v>9359.68</v>
@@ -7501,19 +7501,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3511.01</v>
+        <v>3565.46</v>
       </c>
       <c r="B35">
-        <v>3216.74</v>
+        <v>2432.46</v>
       </c>
       <c r="C35">
         <v>344</v>
       </c>
       <c r="D35">
-        <v>2193.1</v>
+        <v>3440.61</v>
       </c>
       <c r="E35">
-        <v>1379.35</v>
+        <v>3288.89</v>
       </c>
       <c r="F35">
         <v>9205.0499999999993</v>
@@ -7548,19 +7548,19 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2012.88</v>
+        <v>5840.42</v>
       </c>
       <c r="B36">
-        <v>1914.39</v>
+        <v>3791.07</v>
       </c>
       <c r="C36">
         <v>390.6</v>
       </c>
       <c r="D36">
-        <v>9472</v>
+        <v>1279.1400000000001</v>
       </c>
       <c r="E36">
-        <v>801.35</v>
+        <v>1135.8699999999999</v>
       </c>
       <c r="F36">
         <v>9072.7999999999993</v>
@@ -7595,19 +7595,19 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2588.0500000000002</v>
+        <v>3157.33</v>
       </c>
       <c r="B37">
-        <v>2368</v>
+        <v>3456.3</v>
       </c>
       <c r="C37">
         <v>365.29</v>
       </c>
       <c r="D37">
-        <v>651.4</v>
+        <v>9472</v>
       </c>
       <c r="E37">
-        <v>1950.18</v>
+        <v>9472</v>
       </c>
       <c r="F37">
         <v>9205.0499999999993</v>
@@ -7642,19 +7642,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2614.12</v>
+        <v>2445.4</v>
       </c>
       <c r="B38">
-        <v>2368</v>
+        <v>5517.56</v>
       </c>
       <c r="C38">
         <v>366.36</v>
       </c>
       <c r="D38">
-        <v>2043.14</v>
+        <v>783.52</v>
       </c>
       <c r="E38">
-        <v>1204.48</v>
+        <v>3117.84</v>
       </c>
       <c r="F38">
         <v>8673.99</v>
@@ -7689,19 +7689,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3307.38</v>
+        <v>3327.6</v>
       </c>
       <c r="B39">
-        <v>2368</v>
+        <v>2464.48</v>
       </c>
       <c r="C39">
         <v>408.57</v>
       </c>
       <c r="D39">
-        <v>9472</v>
+        <v>3167.89</v>
       </c>
       <c r="E39">
-        <v>700.95</v>
+        <v>2993.68</v>
       </c>
       <c r="F39">
         <v>9472</v>
@@ -7736,19 +7736,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2368</v>
+        <v>3711.16</v>
       </c>
       <c r="B40">
-        <v>2368</v>
+        <v>3150.61</v>
       </c>
       <c r="C40">
         <v>378.88</v>
       </c>
       <c r="D40">
-        <v>671.87</v>
+        <v>3070.34</v>
       </c>
       <c r="E40">
-        <v>1888.36</v>
+        <v>1295.76</v>
       </c>
       <c r="F40">
         <v>9472</v>
@@ -7783,19 +7783,19 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1985.49</v>
+        <v>3634.69</v>
       </c>
       <c r="B41">
-        <v>2368</v>
+        <v>3269.48</v>
       </c>
       <c r="C41">
         <v>378.88</v>
       </c>
       <c r="D41">
-        <v>2085.42</v>
+        <v>1002.65</v>
       </c>
       <c r="E41">
-        <v>22182.67</v>
+        <v>9472</v>
       </c>
       <c r="F41">
         <v>9472</v>
@@ -7830,19 +7830,19 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2659.4</v>
+        <v>5103.45</v>
       </c>
       <c r="B42">
-        <v>2368</v>
+        <v>3621.49</v>
       </c>
       <c r="C42">
         <v>328.57</v>
       </c>
       <c r="D42">
-        <v>1001.06</v>
+        <v>825.66</v>
       </c>
       <c r="E42">
-        <v>1735.12</v>
+        <v>2784.24</v>
       </c>
       <c r="F42">
         <v>9472</v>
@@ -7877,19 +7877,19 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2448.4299999999998</v>
+        <v>3157.33</v>
       </c>
       <c r="B43">
-        <v>1823.4</v>
+        <v>3496.75</v>
       </c>
       <c r="C43">
         <v>349.54</v>
       </c>
       <c r="D43">
-        <v>632.77</v>
+        <v>2758.3</v>
       </c>
       <c r="E43">
-        <v>1348.14</v>
+        <v>2771.21</v>
       </c>
       <c r="F43">
         <v>9655.4500000000007</v>
@@ -7924,19 +7924,19 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3580.42</v>
+        <v>2396.4</v>
       </c>
       <c r="B44">
-        <v>2127.34</v>
+        <v>5701.22</v>
       </c>
       <c r="C44">
         <v>366.83</v>
       </c>
       <c r="D44">
-        <v>1740.22</v>
+        <v>2463.46</v>
       </c>
       <c r="E44">
-        <v>739.02</v>
+        <v>1211.72</v>
       </c>
       <c r="F44">
         <v>9655.4500000000007</v>
@@ -7971,19 +7971,19 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1934.17</v>
+        <v>2562.63</v>
       </c>
       <c r="B45">
-        <v>2332.9499999999998</v>
+        <v>4914.8999999999996</v>
       </c>
       <c r="C45">
         <v>365.44</v>
       </c>
       <c r="D45">
-        <v>831.39</v>
+        <v>9472</v>
       </c>
       <c r="E45">
-        <v>1740.22</v>
+        <v>909.72</v>
       </c>
       <c r="F45">
         <v>9214.01</v>
@@ -8018,19 +8018,19 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2734.73</v>
+        <v>3409.03</v>
       </c>
       <c r="B46">
-        <v>2384.9899999999998</v>
+        <v>2453.38</v>
       </c>
       <c r="C46">
         <v>392.34</v>
       </c>
       <c r="D46">
-        <v>1787.17</v>
+        <v>724.71</v>
       </c>
       <c r="E46">
-        <v>12221.94</v>
+        <v>2636.97</v>
       </c>
       <c r="F46">
         <v>9655.4500000000007</v>
@@ -8065,19 +8065,19 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2540.84</v>
+        <v>3418.88</v>
       </c>
       <c r="B47">
-        <v>2418.73</v>
+        <v>3418.88</v>
       </c>
       <c r="C47">
         <v>364.31</v>
       </c>
       <c r="D47">
-        <v>1236.71</v>
+        <v>2473.75</v>
       </c>
       <c r="E47">
-        <v>1710.36</v>
+        <v>2525.87</v>
       </c>
       <c r="F47">
         <v>9815.5400000000009</v>
@@ -8112,19 +8112,19 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3432.51</v>
+        <v>6096.02</v>
       </c>
       <c r="B48">
-        <v>2672.46</v>
+        <v>3834.97</v>
       </c>
       <c r="C48">
         <v>371.24</v>
       </c>
       <c r="D48">
-        <v>638.19000000000005</v>
+        <v>1219.2</v>
       </c>
       <c r="E48">
-        <v>1342.21</v>
+        <v>1042.83</v>
       </c>
       <c r="F48">
         <v>8935.85</v>
@@ -8159,19 +8159,19 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2153.31</v>
+        <v>4907.01</v>
       </c>
       <c r="B49">
-        <v>2654.71</v>
+        <v>5427.46</v>
       </c>
       <c r="C49">
         <v>371.06</v>
       </c>
       <c r="D49">
-        <v>1776.11</v>
+        <v>9472</v>
       </c>
       <c r="E49">
-        <v>716.06</v>
+        <v>780.49</v>
       </c>
       <c r="F49">
         <v>1048.3699999999999</v>
@@ -8206,19 +8206,19 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2582.54</v>
+        <v>2371.7399999999998</v>
       </c>
       <c r="B50">
-        <v>3300.12</v>
+        <v>2406.9899999999998</v>
       </c>
       <c r="C50">
         <v>362.32</v>
       </c>
       <c r="D50">
-        <v>851.49</v>
+        <v>2404.06</v>
       </c>
       <c r="E50">
-        <v>1622.2</v>
+        <v>2423.13</v>
       </c>
       <c r="F50">
         <v>9472</v>
@@ -8253,19 +8253,19 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3340.62</v>
+        <v>2454.39</v>
       </c>
       <c r="B51">
-        <v>2368</v>
+        <v>3630.23</v>
       </c>
       <c r="C51">
         <v>384.43</v>
       </c>
       <c r="D51">
-        <v>1720.31</v>
+        <v>2366.23</v>
       </c>
       <c r="E51">
-        <v>928.08</v>
+        <v>1369.78</v>
       </c>
       <c r="F51">
         <v>9472</v>
@@ -8300,19 +8300,19 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2368</v>
+        <v>3223.63</v>
       </c>
       <c r="B52">
-        <v>2368</v>
+        <v>3359.22</v>
       </c>
       <c r="C52">
         <v>350.81</v>
       </c>
       <c r="D52">
-        <v>1262.93</v>
+        <v>1026.78</v>
       </c>
       <c r="E52">
-        <v>1600.81</v>
+        <v>9472</v>
       </c>
       <c r="F52">
         <v>9472</v>
@@ -8347,19 +8347,19 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1988.79</v>
+        <v>3289.23</v>
       </c>
       <c r="B53">
-        <v>1781.62</v>
+        <v>3496.75</v>
       </c>
       <c r="C53">
         <v>371.75</v>
       </c>
       <c r="D53">
-        <v>673.35</v>
+        <v>737.24</v>
       </c>
       <c r="E53">
-        <v>1304.1400000000001</v>
+        <v>672.58</v>
       </c>
       <c r="F53">
         <v>9472</v>
@@ -8394,19 +8394,19 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2641.83</v>
+        <v>3301.96</v>
       </c>
       <c r="B54">
-        <v>2383.0700000000002</v>
+        <v>5491.97</v>
       </c>
       <c r="C54">
         <v>398.53</v>
       </c>
       <c r="D54">
-        <v>2100.2199999999998</v>
+        <v>2302.38</v>
       </c>
       <c r="E54">
-        <v>678.7</v>
+        <v>2242.42</v>
       </c>
       <c r="F54">
         <v>8802.9699999999993</v>
@@ -8441,19 +8441,19 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2637.12</v>
+        <v>3353.63</v>
       </c>
       <c r="B55">
-        <v>2420.65</v>
+        <v>2436.4</v>
       </c>
       <c r="C55">
         <v>385.39</v>
       </c>
       <c r="D55">
-        <v>915.35</v>
+        <v>1197.17</v>
       </c>
       <c r="E55">
-        <v>2107.6999999999998</v>
+        <v>1028.56</v>
       </c>
       <c r="F55">
         <v>9500.5</v>
@@ -8488,19 +8488,19 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2424.61</v>
+        <v>3494.69</v>
       </c>
       <c r="B56">
-        <v>2293.5700000000002</v>
+        <v>3940.92</v>
       </c>
       <c r="C56">
         <v>378.88</v>
       </c>
       <c r="D56">
-        <v>1667.61</v>
+        <v>776.39</v>
       </c>
       <c r="E56">
-        <v>770.39</v>
+        <v>714.33</v>
       </c>
       <c r="F56">
         <v>8935.85</v>
@@ -8535,19 +8535,19 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2040.98</v>
+        <v>3416.9</v>
       </c>
       <c r="B57">
-        <v>2183.14</v>
+        <v>3366.98</v>
       </c>
       <c r="C57">
         <v>354.16</v>
       </c>
       <c r="D57">
-        <v>1382.37</v>
+        <v>2138.15</v>
       </c>
       <c r="E57">
-        <v>1523.07</v>
+        <v>2176.9699999999998</v>
       </c>
       <c r="F57">
         <v>9500.5</v>
@@ -8582,19 +8582,19 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2597.06</v>
+        <v>3422.71</v>
       </c>
       <c r="B58">
-        <v>3132.59</v>
+        <v>5417.52</v>
       </c>
       <c r="C58">
         <v>371.11</v>
       </c>
       <c r="D58">
-        <v>687.27</v>
+        <v>1262.93</v>
       </c>
       <c r="E58">
-        <v>6577.78</v>
+        <v>1112.6500000000001</v>
       </c>
       <c r="F58">
         <v>9214.01</v>
@@ -8629,19 +8629,19 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2526.94</v>
+        <v>5094.9399999999996</v>
       </c>
       <c r="B59">
-        <v>1843.63</v>
+        <v>2497.36</v>
       </c>
       <c r="C59">
         <v>371.04</v>
       </c>
       <c r="D59">
-        <v>2250.42</v>
+        <v>844.28</v>
       </c>
       <c r="E59">
-        <v>1481.85</v>
+        <v>727.38</v>
       </c>
       <c r="F59">
         <v>9655.4500000000007</v>
@@ -8676,19 +8676,19 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3376.47</v>
+        <v>3157.33</v>
       </c>
       <c r="B60">
-        <v>2361.4499999999998</v>
+        <v>3832.49</v>
       </c>
       <c r="C60">
         <v>366.45</v>
       </c>
       <c r="D60">
-        <v>830.22</v>
+        <v>2108.17</v>
       </c>
       <c r="E60">
-        <v>1100.3699999999999</v>
+        <v>2085.88</v>
       </c>
       <c r="F60">
         <v>1019.81</v>
@@ -8723,19 +8723,19 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2004.78</v>
+        <v>3157.33</v>
       </c>
       <c r="B61">
-        <v>2312.2199999999998</v>
+        <v>5800.72</v>
       </c>
       <c r="C61">
         <v>357.78</v>
       </c>
       <c r="D61">
-        <v>1649.03</v>
+        <v>1428.66</v>
       </c>
       <c r="E61">
-        <v>1511.65</v>
+        <v>1123.07</v>
       </c>
       <c r="F61">
         <v>9472</v>
@@ -8770,19 +8770,19 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2745.98</v>
+        <v>2554.96</v>
       </c>
       <c r="B62">
-        <v>2262.4</v>
+        <v>3280.12</v>
       </c>
       <c r="C62">
         <v>370.28</v>
       </c>
       <c r="D62">
-        <v>1187.71</v>
+        <v>832.56</v>
       </c>
       <c r="E62">
-        <v>1298.42</v>
+        <v>746.41</v>
       </c>
       <c r="F62">
         <v>9472</v>
@@ -8817,19 +8817,19 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2399.37</v>
+        <v>3029.49</v>
       </c>
       <c r="B63">
-        <v>2282.19</v>
+        <v>3535.91</v>
       </c>
       <c r="C63">
         <v>380.62</v>
       </c>
       <c r="D63">
-        <v>624.84</v>
+        <v>2036.11</v>
       </c>
       <c r="E63">
-        <v>653.51</v>
+        <v>2145.41</v>
       </c>
       <c r="F63">
         <v>9472</v>
@@ -8864,19 +8864,19 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3486.58</v>
+        <v>4637</v>
       </c>
       <c r="B64">
-        <v>3051.15</v>
+        <v>3556.89</v>
       </c>
       <c r="C64">
         <v>349.67</v>
       </c>
       <c r="D64">
-        <v>1705.44</v>
+        <v>1351.21</v>
       </c>
       <c r="E64">
-        <v>1864.93</v>
+        <v>1180.75</v>
       </c>
       <c r="F64">
         <v>9205.0499999999993</v>
@@ -8911,19 +8911,19 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1948.65</v>
+        <v>2398.34</v>
       </c>
       <c r="B65">
-        <v>2368</v>
+        <v>5944.89</v>
       </c>
       <c r="C65">
         <v>352.67</v>
       </c>
       <c r="D65">
-        <v>724.71</v>
+        <v>779.46</v>
       </c>
       <c r="E65">
-        <v>701.79</v>
+        <v>753.9</v>
       </c>
       <c r="F65">
         <v>8935.85</v>
@@ -8958,19 +8958,19 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2719.89</v>
+        <v>3157.33</v>
       </c>
       <c r="B66">
-        <v>2368</v>
+        <v>3157.33</v>
       </c>
       <c r="C66">
         <v>365.44</v>
       </c>
       <c r="D66">
-        <v>1587.93</v>
+        <v>2002.11</v>
       </c>
       <c r="E66">
-        <v>2328.9899999999998</v>
+        <v>2064.52</v>
       </c>
       <c r="F66">
         <v>9655.4500000000007</v>
@@ -9005,19 +9005,19 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3725.17</v>
+        <v>2494.27</v>
       </c>
       <c r="B67">
-        <v>2368</v>
+        <v>2437.41</v>
       </c>
       <c r="C67">
         <v>378.57</v>
       </c>
       <c r="D67">
-        <v>8088.81</v>
+        <v>1209.24</v>
       </c>
       <c r="E67">
-        <v>725.6</v>
+        <v>1176.06</v>
       </c>
       <c r="F67">
         <v>8316.07</v>
@@ -9052,19 +9052,19 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1924.85</v>
+        <v>3559.03</v>
       </c>
       <c r="B68">
-        <v>1989.46</v>
+        <v>3815.35</v>
       </c>
       <c r="C68">
         <v>364.31</v>
       </c>
       <c r="D68">
-        <v>1471.04</v>
+        <v>721.24</v>
       </c>
       <c r="E68">
-        <v>2613.69</v>
+        <v>776.39</v>
       </c>
       <c r="F68">
         <v>9655.4500000000007</v>
@@ -9099,19 +9099,19 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4673.1499999999996</v>
+        <v>3699.86</v>
       </c>
       <c r="B69">
-        <v>2901.69</v>
+        <v>6216.45</v>
       </c>
       <c r="C69">
         <v>369.39</v>
       </c>
       <c r="D69">
-        <v>1146.73</v>
+        <v>1853.26</v>
       </c>
       <c r="E69">
-        <v>732.67</v>
+        <v>2002.11</v>
       </c>
       <c r="F69">
         <v>9500.5</v>
@@ -9146,19 +9146,19 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2368</v>
+        <v>3298.16</v>
       </c>
       <c r="B70">
-        <v>3314.67</v>
+        <v>2539.75</v>
       </c>
       <c r="C70">
         <v>389.81</v>
       </c>
       <c r="D70">
-        <v>37438.74</v>
+        <v>1032.03</v>
       </c>
       <c r="E70">
-        <v>2671.93</v>
+        <v>1190.0999999999999</v>
       </c>
       <c r="F70">
         <v>1037.46</v>
@@ -9193,19 +9193,19 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2086.5300000000002</v>
+        <v>3283.76</v>
       </c>
       <c r="B71">
-        <v>2368</v>
+        <v>3877.2</v>
       </c>
       <c r="C71">
         <v>357.35</v>
       </c>
       <c r="D71">
-        <v>619.04</v>
+        <v>1771.13</v>
       </c>
       <c r="E71">
-        <v>721.24</v>
+        <v>688.87</v>
       </c>
       <c r="F71">
         <v>9472</v>
@@ -9240,19 +9240,19 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2461.4699999999998</v>
+        <v>5051.7299999999996</v>
       </c>
       <c r="B72">
-        <v>1901.02</v>
+        <v>3490.57</v>
       </c>
       <c r="C72">
         <v>369.39</v>
       </c>
       <c r="D72">
-        <v>1644.44</v>
+        <v>1575.25</v>
       </c>
       <c r="E72">
-        <v>2557.9299999999998</v>
+        <v>1776.44</v>
       </c>
       <c r="F72">
         <v>9472</v>
@@ -9287,19 +9287,19 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3776.87</v>
+        <v>4918.99</v>
       </c>
       <c r="B73">
-        <v>2134.15</v>
+        <v>3454.29</v>
       </c>
       <c r="C73">
         <v>370.03</v>
       </c>
       <c r="D73">
-        <v>685.68</v>
+        <v>826.82</v>
       </c>
       <c r="E73">
-        <v>761.6</v>
+        <v>902.96</v>
       </c>
       <c r="F73">
         <v>9472</v>
@@ -9334,19 +9334,19 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2368</v>
+        <v>3157.33</v>
       </c>
       <c r="B74">
-        <v>2490.14</v>
+        <v>3706.81</v>
       </c>
       <c r="C74">
         <v>368.34</v>
       </c>
       <c r="D74">
-        <v>2225.04</v>
+        <v>1686.31</v>
       </c>
       <c r="E74">
-        <v>3149.98</v>
+        <v>1797.68</v>
       </c>
       <c r="F74">
         <v>9072.7999999999993</v>
@@ -9381,19 +9381,19 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2025.14</v>
+        <v>2447.36</v>
       </c>
       <c r="B75">
-        <v>3573.94</v>
+        <v>3617.06</v>
       </c>
       <c r="C75">
         <v>389.76</v>
       </c>
       <c r="D75">
-        <v>710.95</v>
+        <v>1178.4000000000001</v>
       </c>
       <c r="E75">
-        <v>782.49</v>
+        <v>1428.66</v>
       </c>
       <c r="F75">
         <v>9072.7999999999993</v>
@@ -9428,19 +9428,19 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2588.0500000000002</v>
+        <v>3318.27</v>
       </c>
       <c r="B76">
-        <v>2368</v>
+        <v>5043.3900000000003</v>
       </c>
       <c r="C76">
         <v>371.2</v>
       </c>
       <c r="D76">
-        <v>2536.69</v>
+        <v>636.82000000000005</v>
       </c>
       <c r="E76">
-        <v>1298.42</v>
+        <v>730.02</v>
       </c>
       <c r="F76">
         <v>9214.01</v>
@@ -9475,19 +9475,19 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3699.86</v>
+        <v>3468.2</v>
       </c>
       <c r="B77">
-        <v>2100.4499999999998</v>
+        <v>2503.63</v>
       </c>
       <c r="C77">
         <v>361.36</v>
       </c>
       <c r="D77">
-        <v>732.67</v>
+        <v>1776.11</v>
       </c>
       <c r="E77">
-        <v>737.24</v>
+        <v>1700.54</v>
       </c>
       <c r="F77">
         <v>8681.94</v>
@@ -9522,19 +9522,19 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3204.66</v>
+        <v>3216.74</v>
       </c>
       <c r="B78">
-        <v>2589.1799999999998</v>
+        <v>3706.66</v>
       </c>
       <c r="C78">
         <v>375.93</v>
       </c>
       <c r="D78">
-        <v>2836.78</v>
+        <v>836.08</v>
       </c>
       <c r="E78">
-        <v>2732.83</v>
+        <v>13303.37</v>
       </c>
       <c r="F78">
         <v>8673.99</v>
@@ -9569,19 +9569,19 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1842.48</v>
+        <v>3517.27</v>
       </c>
       <c r="B79">
-        <v>3488.51</v>
+        <v>6090.14</v>
       </c>
       <c r="C79">
         <v>396.42</v>
       </c>
       <c r="D79">
-        <v>797.11</v>
+        <v>1622.2</v>
       </c>
       <c r="E79">
-        <v>722.12</v>
+        <v>1563.04</v>
       </c>
       <c r="F79">
         <v>8548.74</v>
@@ -9616,19 +9616,19 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3370.7</v>
+        <v>5968.49</v>
       </c>
       <c r="B80">
-        <v>1907.68</v>
+        <v>2385.89</v>
       </c>
       <c r="C80">
         <v>370.16</v>
       </c>
       <c r="D80">
-        <v>1333.33</v>
+        <v>1171.4100000000001</v>
       </c>
       <c r="E80">
-        <v>2546.92</v>
+        <v>1336.15</v>
       </c>
       <c r="F80">
         <v>1004.35</v>
@@ -9663,19 +9663,19 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2368</v>
+        <v>4777.5600000000004</v>
       </c>
       <c r="B81">
-        <v>2078.56</v>
+        <v>2742.25</v>
       </c>
       <c r="C81">
         <v>387.99</v>
       </c>
       <c r="D81">
-        <v>6804.6</v>
+        <v>611.45000000000005</v>
       </c>
       <c r="E81">
-        <v>657.09</v>
+        <v>706.76</v>
       </c>
       <c r="F81">
         <v>9472</v>
@@ -9710,19 +9710,19 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2043.8</v>
+        <v>2406.9899999999998</v>
       </c>
       <c r="B82">
-        <v>3959.2</v>
+        <v>6328.17</v>
       </c>
       <c r="C82">
         <v>391.19</v>
       </c>
       <c r="D82">
-        <v>1247.1400000000001</v>
+        <v>1587.66</v>
       </c>
       <c r="E82">
-        <v>1900.48</v>
+        <v>1600.54</v>
       </c>
       <c r="F82">
         <v>9472</v>
@@ -9757,19 +9757,19 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2625.57</v>
+        <v>2479.7800000000002</v>
       </c>
       <c r="B83">
-        <v>1898.58</v>
+        <v>2384.0300000000002</v>
       </c>
       <c r="C83">
         <v>376.95</v>
       </c>
       <c r="D83">
-        <v>3401.08</v>
+        <v>744.54</v>
       </c>
       <c r="E83">
-        <v>625.5</v>
+        <v>829.13</v>
       </c>
       <c r="F83">
         <v>9472</v>
@@ -9804,19 +9804,19 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2455.41</v>
+        <v>3203.03</v>
       </c>
       <c r="B84">
-        <v>2069.21</v>
+        <v>2559.31</v>
       </c>
       <c r="C84">
         <v>392.6</v>
       </c>
       <c r="D84">
-        <v>3201.08</v>
+        <v>1531.2</v>
       </c>
       <c r="E84">
-        <v>1653.63</v>
+        <v>1579.46</v>
       </c>
       <c r="F84">
         <v>8673.99</v>
@@ -9851,19 +9851,19 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3446.37</v>
+        <v>3628.01</v>
       </c>
       <c r="B85">
-        <v>2727.25</v>
+        <v>3697.54</v>
       </c>
       <c r="C85">
         <v>359.78</v>
       </c>
       <c r="D85">
-        <v>695.24</v>
+        <v>6170.68</v>
       </c>
       <c r="E85">
-        <v>585.74</v>
+        <v>1135.8699999999999</v>
       </c>
       <c r="F85">
         <v>9655.4500000000007</v>
@@ -9898,19 +9898,19 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1956.3</v>
+        <v>3540.14</v>
       </c>
       <c r="B86">
-        <v>3351.85</v>
+        <v>5800.72</v>
       </c>
       <c r="C86">
         <v>366.97</v>
       </c>
       <c r="D86">
-        <v>2338.19</v>
+        <v>1478.15</v>
       </c>
       <c r="E86">
-        <v>1398.7</v>
+        <v>620.99</v>
       </c>
       <c r="F86">
         <v>9655.4500000000007</v>
@@ -9945,19 +9945,19 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2689.23</v>
+        <v>3498.82</v>
       </c>
       <c r="B87">
-        <v>2030.61</v>
+        <v>4827.7299999999996</v>
       </c>
       <c r="C87">
         <v>364.31</v>
       </c>
       <c r="D87">
-        <v>685.68</v>
+        <v>6434.78</v>
       </c>
       <c r="E87">
-        <v>549.71</v>
+        <v>1658.26</v>
       </c>
       <c r="F87">
         <v>8802.9699999999993</v>
@@ -9992,19 +9992,19 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3736.78</v>
+        <v>5001.0600000000004</v>
       </c>
       <c r="B88">
-        <v>2730.94</v>
+        <v>2590.31</v>
       </c>
       <c r="C88">
         <v>351.58</v>
       </c>
       <c r="D88">
-        <v>2217.23</v>
+        <v>1463.76</v>
       </c>
       <c r="E88">
-        <v>3054.5</v>
+        <v>687.27</v>
       </c>
       <c r="F88">
         <v>9500.5</v>
@@ -10039,19 +10039,19 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1769.51</v>
+        <v>3157.33</v>
       </c>
       <c r="B89">
-        <v>3434.5</v>
+        <v>3325.73</v>
       </c>
       <c r="C89">
         <v>378.86</v>
       </c>
       <c r="D89">
-        <v>677.93</v>
+        <v>1262.93</v>
       </c>
       <c r="E89">
-        <v>1173.8800000000001</v>
+        <v>2241.89</v>
       </c>
       <c r="F89">
         <v>8935.85</v>
@@ -10086,19 +10086,19 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>3645.74</v>
+        <v>3157.33</v>
       </c>
       <c r="B90">
-        <v>2368</v>
+        <v>3679.45</v>
       </c>
       <c r="C90">
         <v>357.95</v>
       </c>
       <c r="D90">
-        <v>2161.08</v>
+        <v>586.86</v>
       </c>
       <c r="E90">
-        <v>710.95</v>
+        <v>747.36</v>
       </c>
       <c r="F90">
         <v>1028.56</v>
@@ -10133,19 +10133,19 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1905.84</v>
+        <v>2546.2399999999998</v>
       </c>
       <c r="B91">
-        <v>2067.08</v>
+        <v>5354.44</v>
       </c>
       <c r="C91">
         <v>421.39</v>
       </c>
       <c r="D91">
-        <v>644.35</v>
+        <v>1435.59</v>
       </c>
       <c r="E91">
-        <v>2423.13</v>
+        <v>1449.43</v>
       </c>
       <c r="F91">
         <v>9472</v>
@@ -10180,19 +10180,19 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2088</v>
+        <v>3496.75</v>
       </c>
       <c r="B92">
-        <v>4012.37</v>
+        <v>3157.33</v>
       </c>
       <c r="C92">
         <v>365.73</v>
       </c>
       <c r="D92">
-        <v>1836.01</v>
+        <v>617.75</v>
       </c>
       <c r="E92">
-        <v>598.62</v>
+        <v>806.75</v>
       </c>
       <c r="F92">
         <v>9472</v>
@@ -10227,19 +10227,19 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2568.19</v>
+        <v>3333.1</v>
       </c>
       <c r="B93">
-        <v>2456.4299999999998</v>
+        <v>2474.66</v>
       </c>
       <c r="C93">
         <v>347.9</v>
       </c>
       <c r="D93">
-        <v>601.63</v>
+        <v>1635.64</v>
       </c>
       <c r="E93">
-        <v>1477.92</v>
+        <v>1435.59</v>
       </c>
       <c r="F93">
         <v>9472</v>
@@ -10274,19 +10274,19 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2321.17</v>
+        <v>3656.86</v>
       </c>
       <c r="B94">
-        <v>2727.25</v>
+        <v>3498.69</v>
       </c>
       <c r="C94">
         <v>366.54</v>
       </c>
       <c r="D94">
-        <v>1527</v>
+        <v>620.99</v>
       </c>
       <c r="E94">
-        <v>533.05999999999995</v>
+        <v>5073.38</v>
       </c>
       <c r="F94">
         <v>923.83</v>
@@ -10321,19 +10321,19 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2634.84</v>
+        <v>5022.2700000000004</v>
       </c>
       <c r="B95">
-        <v>3757.98</v>
+        <v>3641.26</v>
       </c>
       <c r="C95">
         <v>388.09</v>
       </c>
       <c r="D95">
-        <v>568.48</v>
+        <v>1662.63</v>
       </c>
       <c r="E95">
-        <v>2746.3</v>
+        <v>1385.81</v>
       </c>
       <c r="F95">
         <v>9510.0400000000009</v>
@@ -10368,19 +10368,19 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3287.4</v>
+        <v>3157.33</v>
       </c>
       <c r="B96">
-        <v>1951.82</v>
+        <v>5522.39</v>
       </c>
       <c r="C96">
         <v>367.12</v>
       </c>
       <c r="D96">
-        <v>1333.15</v>
+        <v>662.93</v>
       </c>
       <c r="E96">
-        <v>4016.96</v>
+        <v>1074.6500000000001</v>
       </c>
       <c r="F96">
         <v>9500.5</v>
@@ -10415,19 +10415,19 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2000.76</v>
+        <v>2475.69</v>
       </c>
       <c r="B97">
-        <v>2615.1999999999998</v>
+        <v>2375.48</v>
       </c>
       <c r="C97">
         <v>379.5</v>
       </c>
       <c r="D97">
-        <v>529.75</v>
+        <v>2002.11</v>
       </c>
       <c r="E97">
-        <v>672.58</v>
+        <v>1339.18</v>
       </c>
       <c r="F97">
         <v>8935.85</v>
@@ -10462,19 +10462,19 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2467.5700000000002</v>
+        <v>3482.48</v>
       </c>
       <c r="B98">
-        <v>2575.87</v>
+        <v>2476.73</v>
       </c>
       <c r="C98">
         <v>396.79</v>
       </c>
       <c r="D98">
-        <v>4305.45</v>
+        <v>644.35</v>
       </c>
       <c r="E98">
-        <v>2043.14</v>
+        <v>1219.2</v>
       </c>
       <c r="F98">
         <v>9500.5</v>
@@ -10509,19 +10509,19 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2519.5500000000002</v>
+        <v>3460.22</v>
       </c>
       <c r="B99">
-        <v>3546.37</v>
+        <v>3862.18</v>
       </c>
       <c r="C99">
         <v>396.47</v>
       </c>
       <c r="D99">
-        <v>1142.44</v>
+        <v>1836.01</v>
       </c>
       <c r="E99">
-        <v>574.48</v>
+        <v>1348.33</v>
       </c>
       <c r="F99">
         <v>9655.4500000000007</v>
@@ -10556,19 +10556,19 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>3753.22</v>
+        <v>6216.45</v>
       </c>
       <c r="B100">
-        <v>1979.6</v>
+        <v>5851.97</v>
       </c>
       <c r="C100">
         <v>375.48</v>
       </c>
       <c r="D100">
-        <v>3764.71</v>
+        <v>647.16999999999996</v>
       </c>
       <c r="E100">
-        <v>1345.26</v>
+        <v>1197.17</v>
       </c>
       <c r="F100">
         <v>8927.43</v>
@@ -10603,19 +10603,19 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2368</v>
+        <v>4878.95</v>
       </c>
       <c r="B101">
-        <v>2867</v>
+        <v>2217.96</v>
       </c>
       <c r="C101">
         <v>362.85</v>
       </c>
       <c r="D101">
-        <v>3717.43</v>
+        <v>1841.73</v>
       </c>
       <c r="E101">
-        <v>1086.49</v>
+        <v>1321.43</v>
       </c>
       <c r="F101">
         <v>986.15</v>
@@ -10650,19 +10650,19 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2078.56</v>
+        <v>2539.75</v>
       </c>
       <c r="B102">
-        <v>2515.1999999999998</v>
+        <v>5652.9</v>
       </c>
       <c r="C102">
         <v>348.79</v>
       </c>
       <c r="D102">
-        <v>687.27</v>
+        <v>607.1</v>
       </c>
       <c r="E102">
-        <v>2525.87</v>
+        <v>3886.75</v>
       </c>
       <c r="F102">
         <v>9472</v>
@@ -10696,64 +10696,64 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <f>AVERAGE(A3:A102)</f>
-        <v>2655.0558000000001</v>
-      </c>
-      <c r="B103" s="2">
-        <f>AVERAGE(B3:B102)</f>
-        <v>2568.5223000000005</v>
-      </c>
-      <c r="C103" s="2">
-        <f>AVERAGE(C3:C102)</f>
+      <c r="A103" s="1">
+        <f t="shared" ref="A103:O103" si="0">AVERAGE(A3:A102)</f>
+        <v>3521.0840000000003</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="0"/>
+        <v>3767.1718999999998</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="0"/>
         <v>370.78730000000013</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <f>AVERAGE(D3:D102)</f>
-        <v>2511.2240999999999</v>
-      </c>
-      <c r="E103" s="2">
+        <v>3090.5613999999996</v>
+      </c>
+      <c r="E103" s="1">
         <f>AVERAGE(E3:E102)</f>
-        <v>2345.1087000000007</v>
-      </c>
-      <c r="F103" s="2">
-        <f>AVERAGE(F3:F102)</f>
+        <v>3270.0826000000006</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="0"/>
         <v>7841.804299999998</v>
       </c>
-      <c r="G103" s="2">
-        <f>AVERAGE(G3:G102)</f>
+      <c r="G103" s="1">
+        <f t="shared" si="0"/>
         <v>508.72199999999998</v>
       </c>
-      <c r="H103" s="2">
-        <f>AVERAGE(H3:H102)</f>
+      <c r="H103" s="1">
+        <f t="shared" si="0"/>
         <v>473.05839999999989</v>
       </c>
-      <c r="I103" s="2">
-        <f>AVERAGE(I3:I102)</f>
+      <c r="I103" s="1">
+        <f t="shared" si="0"/>
         <v>36.061700000000016</v>
       </c>
-      <c r="J103" s="2">
-        <f>AVERAGE(J3:J102)</f>
+      <c r="J103" s="1">
+        <f t="shared" si="0"/>
         <v>770.87810000000002</v>
       </c>
-      <c r="K103" s="2">
-        <f>AVERAGE(K3:K102)</f>
+      <c r="K103" s="1">
+        <f t="shared" si="0"/>
         <v>688.2901999999998</v>
       </c>
-      <c r="L103" s="2">
-        <f>AVERAGE(L3:L102)</f>
+      <c r="L103" s="1">
+        <f t="shared" si="0"/>
         <v>95.895399999999995</v>
       </c>
-      <c r="M103" s="3">
-        <f>AVERAGE(M3:M102)</f>
+      <c r="M103" s="2">
+        <f t="shared" si="0"/>
         <v>1.3494000000000006</v>
       </c>
-      <c r="N103" s="3">
-        <f>AVERAGE(N3:N102)</f>
+      <c r="N103" s="2">
+        <f t="shared" si="0"/>
         <v>3.117799999999999</v>
       </c>
-      <c r="O103" s="3">
-        <f>AVERAGE(O3:O102)</f>
+      <c r="O103" s="2">
+        <f t="shared" si="0"/>
         <v>0.50359999999999983</v>
       </c>
     </row>
@@ -10791,10 +10791,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>2655.0558000000001</v>
+        <v>3521.08</v>
       </c>
       <c r="C110">
-        <v>2511.2240000000002</v>
+        <v>3090.56</v>
       </c>
       <c r="D110">
         <v>508.72199999999998</v>
@@ -10809,10 +10809,10 @@
         <v>4</v>
       </c>
       <c r="I110">
-        <v>2655.0558000000001</v>
+        <v>3521.08</v>
       </c>
       <c r="J110">
-        <v>2511.2240000000002</v>
+        <v>3090.56</v>
       </c>
       <c r="L110" t="s">
         <v>4</v>
@@ -10829,10 +10829,10 @@
         <v>5</v>
       </c>
       <c r="B111">
-        <v>2568.5223000000005</v>
+        <v>3767.17</v>
       </c>
       <c r="C111">
-        <v>2345.1089999999999</v>
+        <v>3270.09</v>
       </c>
       <c r="D111">
         <v>473.05840000000001</v>
@@ -10847,10 +10847,10 @@
         <v>5</v>
       </c>
       <c r="I111">
-        <v>2568.5223000000005</v>
+        <v>3767.17</v>
       </c>
       <c r="J111">
-        <v>2345.1089999999999</v>
+        <v>3270.09</v>
       </c>
       <c r="L111" t="s">
         <v>5</v>
